--- a/Test Execution/Feby/testscenario.xlsx
+++ b/Test Execution/Feby/testscenario.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>SL NO</t>
   </si>
@@ -134,6 +134,19 @@
   <si>
     <t>In old registration while we enter patient id and click on 
 save button a msg is displayed"ID already exist"</t>
+  </si>
+  <si>
+    <t>Appoinent functionality</t>
+  </si>
+  <si>
+    <t>In appoinment,the user can create appoinment for a
+patient as duplicate entry at the same time under same 
+doctor and one is standby appoinment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After registering a patient successfully and goto 
+appoinment module in the application selector.click 
+on the icon barcode print </t>
   </si>
 </sst>
 </file>
@@ -478,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,6 +670,31 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45">
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
